--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H2">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J2">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N2">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O2">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P2">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q2">
-        <v>1293.69496700367</v>
+        <v>1344.407781052004</v>
       </c>
       <c r="R2">
-        <v>1293.69496700367</v>
+        <v>12099.67002946803</v>
       </c>
       <c r="S2">
-        <v>0.07732992263692137</v>
+        <v>0.07718951282826544</v>
       </c>
       <c r="T2">
-        <v>0.07732992263692137</v>
+        <v>0.07718951282826542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H3">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I3">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J3">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N3">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P3">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q3">
-        <v>400.5228357557248</v>
+        <v>417.9656732251615</v>
       </c>
       <c r="R3">
-        <v>400.5228357557248</v>
+        <v>3761.691059026453</v>
       </c>
       <c r="S3">
-        <v>0.0239410376427805</v>
+        <v>0.02399760485612679</v>
       </c>
       <c r="T3">
-        <v>0.0239410376427805</v>
+        <v>0.02399760485612678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H4">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I4">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J4">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N4">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P4">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q4">
-        <v>327.0429819507814</v>
+        <v>337.1210828322664</v>
       </c>
       <c r="R4">
-        <v>327.0429819507814</v>
+        <v>3034.089745490398</v>
       </c>
       <c r="S4">
-        <v>0.01954881880059926</v>
+        <v>0.01935589224840509</v>
       </c>
       <c r="T4">
-        <v>0.01954881880059926</v>
+        <v>0.01935589224840508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H5">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I5">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J5">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N5">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P5">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q5">
-        <v>428.7761995331109</v>
+        <v>446.2259734042136</v>
       </c>
       <c r="R5">
-        <v>428.7761995331109</v>
+        <v>4016.033760637923</v>
       </c>
       <c r="S5">
-        <v>0.02562986730577159</v>
+        <v>0.02562017713958577</v>
       </c>
       <c r="T5">
-        <v>0.02562986730577159</v>
+        <v>0.02562017713958577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6790985463752</v>
+        <v>57.98241433333334</v>
       </c>
       <c r="H6">
-        <v>56.6790985463752</v>
+        <v>173.947243</v>
       </c>
       <c r="I6">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="J6">
-        <v>0.1571007063443236</v>
+        <v>0.1573550433628072</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N6">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P6">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q6">
-        <v>178.1874621282061</v>
+        <v>194.9282762638739</v>
       </c>
       <c r="R6">
-        <v>178.1874621282061</v>
+        <v>1754.354486374865</v>
       </c>
       <c r="S6">
-        <v>0.01065105995825092</v>
+        <v>0.01119185629042409</v>
       </c>
       <c r="T6">
-        <v>0.01065105995825092</v>
+        <v>0.01119185629042409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H7">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I7">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J7">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N7">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O7">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P7">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q7">
-        <v>1757.418615888811</v>
+        <v>1785.974567592277</v>
       </c>
       <c r="R7">
-        <v>1757.418615888811</v>
+        <v>16073.7711083305</v>
       </c>
       <c r="S7">
-        <v>0.1050487549797986</v>
+        <v>0.1025421815754779</v>
       </c>
       <c r="T7">
-        <v>0.1050487549797986</v>
+        <v>0.1025421815754779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H8">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I8">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J8">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N8">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P8">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q8">
-        <v>544.0898400308071</v>
+        <v>555.2452708378427</v>
       </c>
       <c r="R8">
-        <v>544.0898400308071</v>
+        <v>4997.207437540584</v>
       </c>
       <c r="S8">
-        <v>0.032522678305355</v>
+        <v>0.03187954767907842</v>
       </c>
       <c r="T8">
-        <v>0.032522678305355</v>
+        <v>0.03187954767907841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H9">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I9">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J9">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N9">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P9">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q9">
-        <v>444.2712071511529</v>
+        <v>447.8475122082826</v>
       </c>
       <c r="R9">
-        <v>444.2712071511529</v>
+        <v>4030.627609874543</v>
       </c>
       <c r="S9">
-        <v>0.02655607307368681</v>
+        <v>0.02571327820020316</v>
       </c>
       <c r="T9">
-        <v>0.02655607307368681</v>
+        <v>0.02571327820020316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H10">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I10">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J10">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N10">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P10">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q10">
-        <v>582.4705934002496</v>
+        <v>592.7875835971573</v>
       </c>
       <c r="R10">
-        <v>582.4705934002496</v>
+        <v>5335.088252374416</v>
       </c>
       <c r="S10">
-        <v>0.03481686724827089</v>
+        <v>0.0340350490627957</v>
       </c>
       <c r="T10">
-        <v>0.03481686724827089</v>
+        <v>0.0340350490627957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9956639376132</v>
+        <v>77.026568</v>
       </c>
       <c r="H11">
-        <v>76.9956639376132</v>
+        <v>231.079704</v>
       </c>
       <c r="I11">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="J11">
-        <v>0.2134132952053236</v>
+        <v>0.2090378451309208</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N11">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P11">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q11">
-        <v>242.0585772142093</v>
+        <v>258.9518960084133</v>
       </c>
       <c r="R11">
-        <v>242.0585772142093</v>
+        <v>2330.56706407572</v>
       </c>
       <c r="S11">
-        <v>0.01446892159821238</v>
+        <v>0.01486778861336559</v>
       </c>
       <c r="T11">
-        <v>0.01446892159821238</v>
+        <v>0.01486778861336558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H12">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I12">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J12">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N12">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O12">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P12">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q12">
-        <v>2357.88503402919</v>
+        <v>2396.546254077653</v>
       </c>
       <c r="R12">
-        <v>2357.88503402919</v>
+        <v>21568.91628669888</v>
       </c>
       <c r="S12">
-        <v>0.1409413129978689</v>
+        <v>0.1375983094042379</v>
       </c>
       <c r="T12">
-        <v>0.1409413129978689</v>
+        <v>0.1375983094042378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H13">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I13">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J13">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N13">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P13">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q13">
-        <v>729.9918638492123</v>
+        <v>745.0671460090716</v>
       </c>
       <c r="R13">
-        <v>729.9918638492123</v>
+        <v>6705.604314081645</v>
       </c>
       <c r="S13">
-        <v>0.04363487205008308</v>
+        <v>0.04277821865906155</v>
       </c>
       <c r="T13">
-        <v>0.04363487205008308</v>
+        <v>0.04277821865906153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H14">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I14">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J14">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N14">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P14">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q14">
-        <v>596.0676761478335</v>
+        <v>600.9532818978967</v>
       </c>
       <c r="R14">
-        <v>596.0676761478335</v>
+        <v>5408.579537081069</v>
       </c>
       <c r="S14">
-        <v>0.03562962557521543</v>
+        <v>0.03450388469631415</v>
       </c>
       <c r="T14">
-        <v>0.03562962557521543</v>
+        <v>0.03450388469631414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H15">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I15">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J15">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N15">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P15">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q15">
-        <v>781.4863701360968</v>
+        <v>795.4440610253033</v>
       </c>
       <c r="R15">
-        <v>781.4863701360968</v>
+        <v>7158.99654922773</v>
       </c>
       <c r="S15">
-        <v>0.04671292853863394</v>
+        <v>0.04567062197797943</v>
       </c>
       <c r="T15">
-        <v>0.04671292853863394</v>
+        <v>0.04567062197797942</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.303175488341</v>
+        <v>103.359665</v>
       </c>
       <c r="H16">
-        <v>103.303175488341</v>
+        <v>310.078995</v>
       </c>
       <c r="I16">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="J16">
-        <v>0.2863313329436832</v>
+        <v>0.2805016789149148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N16">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P16">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q16">
-        <v>324.7639984074764</v>
+        <v>347.4798620463583</v>
       </c>
       <c r="R16">
-        <v>324.7639984074764</v>
+        <v>3127.318758417224</v>
       </c>
       <c r="S16">
-        <v>0.01941259378188193</v>
+        <v>0.0199506441773218</v>
       </c>
       <c r="T16">
-        <v>0.01941259378188193</v>
+        <v>0.01995064417732179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H17">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I17">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J17">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N17">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O17">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P17">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q17">
-        <v>2064.520207363694</v>
+        <v>2134.175194082077</v>
       </c>
       <c r="R17">
-        <v>2064.520207363694</v>
+        <v>19207.57674673869</v>
       </c>
       <c r="S17">
-        <v>0.1234055878624612</v>
+        <v>0.1225342086256432</v>
       </c>
       <c r="T17">
-        <v>0.1234055878624612</v>
+        <v>0.1225342086256432</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H18">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I18">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J18">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N18">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P18">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q18">
-        <v>639.1672759177995</v>
+        <v>663.4980727922836</v>
       </c>
       <c r="R18">
-        <v>639.1672759177995</v>
+        <v>5971.482655130552</v>
       </c>
       <c r="S18">
-        <v>0.03820588103024983</v>
+        <v>0.03809490968674206</v>
       </c>
       <c r="T18">
-        <v>0.03820588103024983</v>
+        <v>0.03809490968674204</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H19">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I19">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J19">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N19">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P19">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q19">
-        <v>521.9057522328233</v>
+        <v>535.1616247116035</v>
       </c>
       <c r="R19">
-        <v>521.9057522328233</v>
+        <v>4816.454622404432</v>
       </c>
       <c r="S19">
-        <v>0.03119663635810833</v>
+        <v>0.03072644005641455</v>
       </c>
       <c r="T19">
-        <v>0.03119663635810833</v>
+        <v>0.03072644005641454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H20">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I20">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J20">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N20">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P20">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q20">
-        <v>684.2549062573598</v>
+        <v>708.3597825127165</v>
       </c>
       <c r="R20">
-        <v>684.2549062573598</v>
+        <v>6375.238042614448</v>
       </c>
       <c r="S20">
-        <v>0.04090096994608266</v>
+        <v>0.04067065609848446</v>
       </c>
       <c r="T20">
-        <v>0.04090096994608266</v>
+        <v>0.04067065609848446</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.45033587412711</v>
+        <v>92.04397066666667</v>
       </c>
       <c r="H21">
-        <v>90.45033587412711</v>
+        <v>276.131912</v>
       </c>
       <c r="I21">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="J21">
-        <v>0.250706380647182</v>
+        <v>0.2497926856283365</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N21">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P21">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q21">
-        <v>284.3573065098666</v>
+        <v>309.4381761923511</v>
       </c>
       <c r="R21">
-        <v>284.3573065098666</v>
+        <v>2784.94358573116</v>
       </c>
       <c r="S21">
-        <v>0.01699730545028002</v>
+        <v>0.01776647116105215</v>
       </c>
       <c r="T21">
-        <v>0.01699730545028002</v>
+        <v>0.01776647116105215</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H22">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I22">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J22">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8249037155233</v>
+        <v>23.18647466666667</v>
       </c>
       <c r="N22">
-        <v>22.8249037155233</v>
+        <v>69.55942400000001</v>
       </c>
       <c r="O22">
-        <v>0.4922315401143673</v>
+        <v>0.4905436214732101</v>
       </c>
       <c r="P22">
-        <v>0.4922315401143673</v>
+        <v>0.49054362147321</v>
       </c>
       <c r="Q22">
-        <v>761.2943545187438</v>
+        <v>882.6819778422899</v>
       </c>
       <c r="R22">
-        <v>761.2943545187438</v>
+        <v>7944.13780058061</v>
       </c>
       <c r="S22">
-        <v>0.04550596163731726</v>
+        <v>0.05067940903958561</v>
       </c>
       <c r="T22">
-        <v>0.04550596163731726</v>
+        <v>0.05067940903958559</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H23">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I23">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J23">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.06649975083874</v>
+        <v>7.208490333333334</v>
       </c>
       <c r="N23">
-        <v>7.06649975083874</v>
+        <v>21.625471</v>
       </c>
       <c r="O23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="P23">
-        <v>0.1523929344423698</v>
+        <v>0.1525061055767782</v>
       </c>
       <c r="Q23">
-        <v>235.6937156699986</v>
+        <v>274.4187978619703</v>
       </c>
       <c r="R23">
-        <v>235.6937156699986</v>
+        <v>2469.769180757733</v>
       </c>
       <c r="S23">
-        <v>0.0140884654139014</v>
+        <v>0.01575582469576943</v>
       </c>
       <c r="T23">
-        <v>0.0140884654139014</v>
+        <v>0.01575582469576942</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H24">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I24">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J24">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.77008086469817</v>
+        <v>5.814195333333333</v>
       </c>
       <c r="N24">
-        <v>5.77008086469817</v>
+        <v>17.442586</v>
       </c>
       <c r="O24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359797</v>
       </c>
       <c r="P24">
-        <v>0.1244349516656747</v>
+        <v>0.1230077653359796</v>
       </c>
       <c r="Q24">
-        <v>192.4533852216795</v>
+        <v>221.3396176075902</v>
       </c>
       <c r="R24">
-        <v>192.4533852216795</v>
+        <v>1992.056558468312</v>
       </c>
       <c r="S24">
-        <v>0.01150379785806485</v>
+        <v>0.01270827013464271</v>
       </c>
       <c r="T24">
-        <v>0.01150379785806485</v>
+        <v>0.01270827013464271</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H25">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I25">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J25">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.56497916392025</v>
+        <v>7.695884666666667</v>
       </c>
       <c r="N25">
-        <v>7.56497916392025</v>
+        <v>23.087654</v>
       </c>
       <c r="O25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="P25">
-        <v>0.1631429157905734</v>
+        <v>0.162817642142644</v>
       </c>
       <c r="Q25">
-        <v>252.3198345685716</v>
+        <v>292.9733302055298</v>
       </c>
       <c r="R25">
-        <v>252.3198345685716</v>
+        <v>2636.759971849768</v>
       </c>
       <c r="S25">
-        <v>0.01508228275181431</v>
+        <v>0.01682113786379865</v>
       </c>
       <c r="T25">
-        <v>0.01508228275181431</v>
+        <v>0.01682113786379865</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.3536721121406</v>
+        <v>38.06883066666667</v>
       </c>
       <c r="H26">
-        <v>33.3536721121406</v>
+        <v>114.206492</v>
       </c>
       <c r="I26">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="J26">
-        <v>0.09244828485948747</v>
+        <v>0.1033127469630208</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.14379492084568</v>
+        <v>3.361851666666666</v>
       </c>
       <c r="N26">
-        <v>3.14379492084568</v>
+        <v>10.085555</v>
       </c>
       <c r="O26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138804</v>
       </c>
       <c r="P26">
-        <v>0.0677976579870149</v>
+        <v>0.07112486547138802</v>
       </c>
       <c r="Q26">
-        <v>104.8571049776998</v>
+        <v>127.9817618247845</v>
       </c>
       <c r="R26">
-        <v>104.8571049776998</v>
+        <v>1151.83585642306</v>
       </c>
       <c r="S26">
-        <v>0.006267777198389659</v>
+        <v>0.007348105229224407</v>
       </c>
       <c r="T26">
-        <v>0.006267777198389659</v>
+        <v>0.007348105229224406</v>
       </c>
     </row>
   </sheetData>
